--- a/strategy_wide/cluster_strategy_wide_5_meaning_2.xlsx
+++ b/strategy_wide/cluster_strategy_wide_5_meaning_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_wide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{EE03EFAD-9757-4576-AD6C-4B47676B5B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40695DAC-81B4-4AB3-A392-FC5A5C641EAB}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{EE03EFAD-9757-4576-AD6C-4B47676B5B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606225D1-B258-47C1-AB22-FA492B86408D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A34BCA7F-3703-45F9-B645-E60FF18200FD}"/>
   </bookViews>
@@ -493,10 +493,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,7 +538,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -640,7 +644,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -782,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D8ED1-2ACD-4F32-951E-85764BD261A7}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G11" sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/strategy_wide/cluster_strategy_wide_5_meaning_2.xlsx
+++ b/strategy_wide/cluster_strategy_wide_5_meaning_2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="80" documentId="8_{EE03EFAD-9757-4576-AD6C-4B47676B5B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606225D1-B258-47C1-AB22-FA492B86408D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A34BCA7F-3703-45F9-B645-E60FF18200FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A34BCA7F-3703-45F9-B645-E60FF18200FD}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_strategy_wide_5_meaning" sheetId="1" r:id="rId1"/>
@@ -493,10 +493,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
